--- a/昨日打卡名单.xlsx
+++ b/昨日打卡名单.xlsx
@@ -76,46 +76,46 @@
     <t>王三川</t>
   </si>
   <si>
-    <t>{'徐婉怡', '敦王青', '李长烨', '王思杰', '周京华', '刘德昊', '刘映辰', '王诗敏'}</t>
+    <t>{'周京华', '徐婉怡', '刘德昊', '敦王青', '王诗敏', '王思杰', '刘映辰', '李长烨'}</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>{'施佳琳', 'Alina', '林峻泽', '唐鹏昆', '李雨硕', '楼清', '陈弈天', '郑子宜'}</t>
-  </si>
-  <si>
-    <t>{'王振宇', '张修骐', '郭跃', '申倍伊', '魏郅杰', '黄瑾', '贾与婷'}</t>
-  </si>
-  <si>
-    <t>{'吴欣雅', '黄哲彦', '任汉铖', '江哲昊'}</t>
-  </si>
-  <si>
-    <t>{'刘涵钰Kathy', '王若娟', '胥湄', '谈子然', '靳蕊嘉', '徐子臻', '朱灿然'}</t>
-  </si>
-  <si>
-    <t>{'陈嘉越', '员诗雅', '王泰然', '侯天驰', '孙稼骏', '赵晓硕'}</t>
-  </si>
-  <si>
-    <t>{'张茜', '王江珊', '刘岂彰', '王艺潼', '李维凯'}</t>
-  </si>
-  <si>
-    <t>{'樊晓伟', '郭梦瑶', '景然', '杨小薇', '李月', '何翔', '王诚', '周泽亚'}</t>
-  </si>
-  <si>
-    <t>{'熊叶童', '吴凡', '时雨涵', '单紫晨', '胡洪梅', '李沛宇', '谭炜川', '段佳兴', '王瑞雪', '叶子冠', '肖涵月', '李依凝', '赵钰'}</t>
-  </si>
-  <si>
-    <t>{'杨珂凡', '刘雪炜', '赵晖', '齐昌晖', '方震宇', '陈友斌', '刘思宜', '吕彦乐', '马赫', '刘奕龙', '赵博洋', '张悦华'}</t>
-  </si>
-  <si>
-    <t>{'符芷瑜', '陈奕璇', '陈敏', '康郑浩', '杨思奇', '杨景瀚', '李天徽'}</t>
-  </si>
-  <si>
-    <t>{'崔雯静', '饶博林', '任展禾', '王季尧', '闫寒淞', '黄孟扬', '靳宇昂', '陈维艺', '杜昊为', '冯军策', '王勉'}</t>
-  </si>
-  <si>
-    <t>{'刘昕', '周少虎', '张真宇', '朱星达', '王三川'}</t>
+    <t>{'林峻泽', '唐鹏昆', '胥咏廷', '施佳琳', '楼清', '郑子宜', 'Alina', '陈弈天', '李雨硕'}</t>
+  </si>
+  <si>
+    <t>{'郭跃', '申倍伊', '魏郅杰', '马煜东', '张子诚', '张修骐', '王振宇', '李献平', '徐子迤', '黄瑾', '贾与婷'}</t>
+  </si>
+  <si>
+    <t>{'任汉铖', '江哲昊', '黄哲彦', '吴欣雅'}</t>
+  </si>
+  <si>
+    <t>{'靳蕊嘉', '刘涵钰Kathy', '胥湄', '张正端', '朱灿然', '王若娟', '徐子臻'}</t>
+  </si>
+  <si>
+    <t>{'赵晓硕', '员诗雅', '王泰然', '陈嘉越', '侯天驰', '孙稼骏'}</t>
+  </si>
+  <si>
+    <t>{'李维凯', '张茜', '张蓦', '王江珊', '刘岂彰'}</t>
+  </si>
+  <si>
+    <t>{'周泽亚', '杨小薇', '郭梦瑶', '李月', '景然', '何翔', '樊晓伟', '王诚'}</t>
+  </si>
+  <si>
+    <t>{'胡洪梅', '段佳兴', '李依凝', '熊叶童', '肖涵月', '王瑞雪', '赵钰', '谭炜川', '单紫晨', '李沛宇', '时雨涵', '吴凡'}</t>
+  </si>
+  <si>
+    <t>{'马赫', '张悦华', '齐昌晖', '陈友斌', '刘奕龙', '刘雪炜', '方震宇', '杨珂凡', '吕彦乐', '赵晖', '赵博洋', '刘思宜'}</t>
+  </si>
+  <si>
+    <t>{'陈奕璇', '符芷瑜', '杨景瀚', '康郑浩', '陈敏', '李天徽', '杨思奇'}</t>
+  </si>
+  <si>
+    <t>{'任展禾', '崔雯静', '王勉', '闫寒淞', '冯军策', '黄孟扬', '饶博林', '靳宇昂', '王季尧'}</t>
+  </si>
+  <si>
+    <t>{'朱星达', '周少虎', '王三川', '张真宇', '刘昕'}</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -564,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -704,7 +704,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -764,7 +764,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6">
